--- a/kaggle/titanic/titanic_score.xlsx
+++ b/kaggle/titanic/titanic_score.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okso6\Google 드라이브\temp\kaggle\titanic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okso6\Desktop\workspace\kaggle\titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D8EA48-577F-46FA-80A6-FDFE58238C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895AF7D-DD03-46CC-B552-FCB1E417E7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
     <sheet name="Score" sheetId="2" r:id="rId2"/>
     <sheet name="생존률_우선순위" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">생존률_우선순위!$B$2:$E$63</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="112">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,7 +461,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00000000000000000_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -649,11 +650,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,6 +766,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1027,16 +1094,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.625" style="5" customWidth="1"/>
@@ -1047,13 +1114,13 @@
     <col min="8" max="8" width="116" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="C1" s="7">
         <f>MAX(C3:C28)</f>
         <v>0.78708</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>44081</v>
       </c>
@@ -1102,7 +1169,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>44082</v>
       </c>
@@ -1127,7 +1194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>44083</v>
       </c>
@@ -1154,7 +1221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="26" customFormat="1">
       <c r="A6" s="22">
         <v>44083</v>
       </c>
@@ -1181,7 +1248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>44083</v>
       </c>
@@ -1208,7 +1275,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>44084</v>
       </c>
@@ -1233,7 +1300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
@@ -1252,7 +1319,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>2</v>
@@ -1275,7 +1342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
@@ -1294,7 +1361,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>3</v>
@@ -1317,7 +1384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -1336,7 +1403,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>44087</v>
       </c>
@@ -1363,7 +1430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1380,7 +1447,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>44088</v>
       </c>
@@ -1405,7 +1472,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1424,7 +1491,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1443,7 +1510,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1462,7 +1529,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>2</v>
@@ -1487,7 +1554,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1506,7 +1573,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>44089</v>
       </c>
@@ -1533,7 +1600,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1552,7 +1619,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1565,7 +1632,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1578,7 +1645,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1591,7 +1658,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1604,7 +1671,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1618,26 +1685,6 @@
         <v>105</v>
       </c>
       <c r="H28" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E31">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E32">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34">
-        <v>17730</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1651,10 +1698,10 @@
   <dimension ref="B1:J85"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3" style="8" customWidth="1"/>
     <col min="2" max="2" width="21" style="8" bestFit="1" customWidth="1"/>
@@ -1666,7 +1713,7 @@
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9">
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
@@ -1674,7 +1721,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9">
       <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
@@ -1688,7 +1735,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9">
       <c r="B3" s="14">
         <f>MAX(C4:D14)</f>
         <v>0.84553333989953705</v>
@@ -1715,7 +1762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9">
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9">
       <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1773,7 +1820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9">
       <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
@@ -1802,7 +1849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9">
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1831,7 +1878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9">
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9">
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9">
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +1965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -1947,7 +1994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9">
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
@@ -1976,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -2005,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9">
       <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
@@ -2034,7 +2081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9">
       <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
@@ -2045,7 +2092,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9">
       <c r="B16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2059,7 +2106,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" s="14">
         <f>MAX(C18:D28)</f>
         <v>0.84552349059391296</v>
@@ -2086,7 +2133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" s="34" t="s">
         <v>9</v>
       </c>
@@ -2116,7 +2163,7 @@
       </c>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" s="34" t="s">
         <v>10</v>
       </c>
@@ -2146,7 +2193,7 @@
       </c>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" s="34" t="s">
         <v>11</v>
       </c>
@@ -2176,7 +2223,7 @@
       </c>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="34" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2253,7 @@
       </c>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="34" t="s">
         <v>13</v>
       </c>
@@ -2236,7 +2283,7 @@
       </c>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" s="34" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2313,7 @@
       </c>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="34" t="s">
         <v>15</v>
       </c>
@@ -2296,7 +2343,7 @@
       </c>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="34" t="s">
         <v>16</v>
       </c>
@@ -2326,7 +2373,7 @@
       </c>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" s="34" t="s">
         <v>17</v>
       </c>
@@ -2356,7 +2403,7 @@
       </c>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="34" t="s">
         <v>18</v>
       </c>
@@ -2386,7 +2433,7 @@
       </c>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" s="34" t="s">
         <v>19</v>
       </c>
@@ -2416,7 +2463,7 @@
       </c>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
@@ -2427,7 +2474,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" s="13" t="s">
         <v>26</v>
       </c>
@@ -2441,7 +2488,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="38"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" s="14">
         <f>MAX(C32:D42)</f>
         <v>0.84974884270658901</v>
@@ -2468,7 +2515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" s="34" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9">
       <c r="B33" s="34" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9">
       <c r="B34" s="34" t="s">
         <v>11</v>
       </c>
@@ -2543,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9">
       <c r="B35" s="34" t="s">
         <v>12</v>
       </c>
@@ -2568,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>13</v>
       </c>
@@ -2593,7 +2640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9">
       <c r="B37" s="34" t="s">
         <v>14</v>
       </c>
@@ -2618,7 +2665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9">
       <c r="B38" s="34" t="s">
         <v>15</v>
       </c>
@@ -2643,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9">
       <c r="B39" s="34" t="s">
         <v>16</v>
       </c>
@@ -2668,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9">
       <c r="B40" s="34" t="s">
         <v>17</v>
       </c>
@@ -2693,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9">
       <c r="B41" s="34" t="s">
         <v>18</v>
       </c>
@@ -2718,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9">
       <c r="B42" s="34" t="s">
         <v>19</v>
       </c>
@@ -2743,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9">
       <c r="B43" s="8" t="s">
         <v>71</v>
       </c>
@@ -2754,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9">
       <c r="B44" s="13" t="s">
         <v>26</v>
       </c>
@@ -2768,7 +2815,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="38"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9">
       <c r="B45" s="14">
         <f>MAX(C46:D50)</f>
         <v>0.84271643849108602</v>
@@ -2795,7 +2842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9">
       <c r="B46" s="34" t="s">
         <v>9</v>
       </c>
@@ -2820,7 +2867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9">
       <c r="B47" s="34" t="s">
         <v>11</v>
       </c>
@@ -2845,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9">
       <c r="B48" s="34" t="s">
         <v>12</v>
       </c>
@@ -2870,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9">
       <c r="B49" s="34" t="s">
         <v>13</v>
       </c>
@@ -2895,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9">
       <c r="B50" s="34" t="s">
         <v>15</v>
       </c>
@@ -2920,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9">
       <c r="B51" s="8" t="s">
         <v>77</v>
       </c>
@@ -2931,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9">
       <c r="B52" s="13" t="s">
         <v>26</v>
       </c>
@@ -2945,7 +2992,7 @@
       <c r="F52" s="37"/>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9">
       <c r="B53" s="14">
         <f>MAX(C54:D55)</f>
         <v>0.84833054269674002</v>
@@ -2972,7 +3019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9">
       <c r="B54" s="34" t="s">
         <v>11</v>
       </c>
@@ -2997,7 +3044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9">
       <c r="B55" s="34" t="s">
         <v>12</v>
       </c>
@@ -3022,7 +3069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9">
       <c r="B56" s="8" t="s">
         <v>81</v>
       </c>
@@ -3033,7 +3080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9">
       <c r="B57" s="13" t="s">
         <v>26</v>
       </c>
@@ -3047,7 +3094,7 @@
       <c r="F57" s="37"/>
       <c r="G57" s="38"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9">
       <c r="B58" s="14">
         <f>MAX(C59:D63)</f>
         <v>0.84549394267704103</v>
@@ -3074,7 +3121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9">
       <c r="B59" s="34" t="s">
         <v>9</v>
       </c>
@@ -3099,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9">
       <c r="B60" s="34" t="s">
         <v>11</v>
       </c>
@@ -3126,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9">
       <c r="B61" s="34" t="s">
         <v>12</v>
       </c>
@@ -3151,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9">
       <c r="B62" s="34" t="s">
         <v>13</v>
       </c>
@@ -3176,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9">
       <c r="B63" s="34" t="s">
         <v>15</v>
       </c>
@@ -3201,7 +3248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9">
       <c r="B64" s="8" t="s">
         <v>87</v>
       </c>
@@ -3212,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9">
       <c r="B65" s="13" t="s">
         <v>26</v>
       </c>
@@ -3226,7 +3273,7 @@
       <c r="F65" s="37"/>
       <c r="G65" s="38"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9">
       <c r="B66" s="14">
         <f>MAX(C67:D71)</f>
         <v>0.84754200000000002</v>
@@ -3253,7 +3300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9">
       <c r="B67" s="34" t="s">
         <v>9</v>
       </c>
@@ -3280,7 +3327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9">
       <c r="B68" s="34" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9">
       <c r="B69" s="34" t="s">
         <v>12</v>
       </c>
@@ -3334,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9">
       <c r="B70" s="34" t="s">
         <v>13</v>
       </c>
@@ -3361,7 +3408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9">
       <c r="B71" s="34" t="s">
         <v>15</v>
       </c>
@@ -3388,7 +3435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9">
       <c r="B72" s="8" t="s">
         <v>96</v>
       </c>
@@ -3399,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9">
       <c r="B73" s="13" t="s">
         <v>26</v>
       </c>
@@ -3413,7 +3460,7 @@
       <c r="F73" s="37"/>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9">
       <c r="B74" s="14">
         <f>MAX(C75:D85)</f>
         <v>0.84754200000000002</v>
@@ -3440,7 +3487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9">
       <c r="B75" s="12" t="s">
         <v>9</v>
       </c>
@@ -3465,7 +3512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9">
       <c r="B76" s="12" t="s">
         <v>10</v>
       </c>
@@ -3490,7 +3537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9">
       <c r="B77" s="34" t="s">
         <v>11</v>
       </c>
@@ -3515,7 +3562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
@@ -3540,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9">
       <c r="B79" s="12" t="s">
         <v>13</v>
       </c>
@@ -3565,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9">
       <c r="B80" s="12" t="s">
         <v>14</v>
       </c>
@@ -3590,7 +3637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9">
       <c r="B81" s="12" t="s">
         <v>15</v>
       </c>
@@ -3615,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9">
       <c r="B82" s="12" t="s">
         <v>16</v>
       </c>
@@ -3640,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9">
       <c r="B83" s="12" t="s">
         <v>17</v>
       </c>
@@ -3665,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9">
       <c r="B84" s="12" t="s">
         <v>18</v>
       </c>
@@ -3690,7 +3737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9">
       <c r="B85" s="12" t="s">
         <v>19</v>
       </c>
@@ -3740,7 +3787,7 @@
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="5" bestFit="1" customWidth="1"/>
@@ -3748,7 +3795,7 @@
     <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="11" t="s">
         <v>64</v>
       </c>
@@ -3762,7 +3809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5">
       <c r="B3" s="28" t="s">
         <v>37</v>
       </c>
@@ -3776,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="29" t="s">
         <v>48</v>
       </c>
@@ -3790,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5">
       <c r="B5" s="27" t="s">
         <v>41</v>
       </c>
@@ -3804,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
         <v>49</v>
       </c>
@@ -3818,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5">
       <c r="B7" s="27" t="s">
         <v>38</v>
       </c>
@@ -3832,7 +3879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="21" t="s">
         <v>62</v>
       </c>
@@ -3846,7 +3893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="21" t="s">
         <v>49</v>
       </c>
@@ -3860,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5">
       <c r="B10" s="21" t="s">
         <v>41</v>
       </c>
@@ -3874,7 +3921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5">
       <c r="B11" s="31" t="s">
         <v>47</v>
       </c>
@@ -3888,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12" s="31" t="s">
         <v>49</v>
       </c>
@@ -3902,7 +3949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5">
       <c r="B13" s="31" t="s">
         <v>37</v>
       </c>
@@ -3916,7 +3963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="B14" s="32" t="s">
         <v>48</v>
       </c>
@@ -3930,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5">
       <c r="B15" s="32" t="s">
         <v>61</v>
       </c>
@@ -3944,7 +3991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5">
       <c r="B16" s="32" t="s">
         <v>62</v>
       </c>
@@ -3958,7 +4005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="30" t="s">
         <v>41</v>
       </c>
@@ -3970,7 +4017,7 @@
       </c>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="30" t="s">
         <v>50</v>
       </c>
@@ -3982,7 +4029,7 @@
       </c>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="30" t="s">
         <v>62</v>
       </c>
@@ -3994,7 +4041,7 @@
       </c>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="30" t="s">
         <v>61</v>
       </c>
@@ -4006,7 +4053,7 @@
       </c>
       <c r="E20" s="30"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="30" t="s">
         <v>60</v>
       </c>
@@ -4018,7 +4065,7 @@
       </c>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="30" t="s">
         <v>61</v>
       </c>
@@ -4030,7 +4077,7 @@
       </c>
       <c r="E22" s="30"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="30" t="s">
         <v>47</v>
       </c>
@@ -4042,7 +4089,7 @@
       </c>
       <c r="E23" s="30"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="30" t="s">
         <v>60</v>
       </c>
@@ -4054,7 +4101,7 @@
       </c>
       <c r="E24" s="30"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="30" t="s">
         <v>49</v>
       </c>
@@ -4066,7 +4113,7 @@
       </c>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" s="30" t="s">
         <v>37</v>
       </c>
@@ -4078,7 +4125,7 @@
       </c>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="B27" s="30" t="s">
         <v>49</v>
       </c>
@@ -4090,7 +4137,7 @@
       </c>
       <c r="E27" s="30"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="B28" s="30" t="s">
         <v>48</v>
       </c>
@@ -4102,7 +4149,7 @@
       </c>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5">
       <c r="B29" s="30" t="s">
         <v>37</v>
       </c>
@@ -4114,7 +4161,7 @@
       </c>
       <c r="E29" s="30"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5">
       <c r="B30" s="30" t="s">
         <v>37</v>
       </c>
@@ -4126,7 +4173,7 @@
       </c>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5">
       <c r="B31" s="30" t="s">
         <v>50</v>
       </c>
@@ -4138,7 +4185,7 @@
       </c>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5">
       <c r="B32" s="30" t="s">
         <v>37</v>
       </c>
@@ -4150,7 +4197,7 @@
       </c>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5">
       <c r="B33" s="30" t="s">
         <v>60</v>
       </c>
@@ -4162,7 +4209,7 @@
       </c>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5">
       <c r="B34" s="30" t="s">
         <v>61</v>
       </c>
@@ -4174,7 +4221,7 @@
       </c>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5">
       <c r="B35" s="30" t="s">
         <v>50</v>
       </c>
@@ -4186,7 +4233,7 @@
       </c>
       <c r="E35" s="30"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5">
       <c r="B36" s="30" t="s">
         <v>62</v>
       </c>
@@ -4198,7 +4245,7 @@
       </c>
       <c r="E36" s="30"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5">
       <c r="B37" s="30" t="s">
         <v>37</v>
       </c>
@@ -4210,7 +4257,7 @@
       </c>
       <c r="E37" s="30"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5">
       <c r="B38" s="30" t="s">
         <v>37</v>
       </c>
@@ -4222,7 +4269,7 @@
       </c>
       <c r="E38" s="30"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5">
       <c r="B39" s="30" t="s">
         <v>49</v>
       </c>
@@ -4234,7 +4281,7 @@
       </c>
       <c r="E39" s="30"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5">
       <c r="B40" s="30" t="s">
         <v>62</v>
       </c>
@@ -4246,7 +4293,7 @@
       </c>
       <c r="E40" s="30"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5">
       <c r="B41" s="30" t="s">
         <v>48</v>
       </c>
@@ -4258,7 +4305,7 @@
       </c>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5">
       <c r="B42" s="30" t="s">
         <v>49</v>
       </c>
@@ -4270,7 +4317,7 @@
       </c>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5">
       <c r="B43" s="30" t="s">
         <v>48</v>
       </c>
@@ -4282,7 +4329,7 @@
       </c>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5">
       <c r="B44" s="30" t="s">
         <v>60</v>
       </c>
@@ -4294,7 +4341,7 @@
       </c>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5">
       <c r="B45" s="30" t="s">
         <v>47</v>
       </c>
@@ -4306,7 +4353,7 @@
       </c>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5">
       <c r="B46" s="30" t="s">
         <v>48</v>
       </c>
@@ -4318,7 +4365,7 @@
       </c>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5">
       <c r="B47" s="30" t="s">
         <v>62</v>
       </c>
@@ -4330,7 +4377,7 @@
       </c>
       <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5">
       <c r="B48" s="30" t="s">
         <v>61</v>
       </c>
@@ -4342,7 +4389,7 @@
       </c>
       <c r="E48" s="30"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5">
       <c r="B49" s="30" t="s">
         <v>38</v>
       </c>
@@ -4354,7 +4401,7 @@
       </c>
       <c r="E49" s="30"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5">
       <c r="B50" s="30" t="s">
         <v>60</v>
       </c>
@@ -4366,7 +4413,7 @@
       </c>
       <c r="E50" s="30"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5">
       <c r="B51" s="30" t="s">
         <v>41</v>
       </c>
@@ -4378,7 +4425,7 @@
       </c>
       <c r="E51" s="30"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5">
       <c r="B52" s="30" t="s">
         <v>62</v>
       </c>
@@ -4390,7 +4437,7 @@
       </c>
       <c r="E52" s="30"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5">
       <c r="B53" s="30" t="s">
         <v>48</v>
       </c>
@@ -4402,7 +4449,7 @@
       </c>
       <c r="E53" s="30"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5">
       <c r="B54" s="30" t="s">
         <v>48</v>
       </c>
@@ -4414,7 +4461,7 @@
       </c>
       <c r="E54" s="30"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5">
       <c r="B55" s="4" t="s">
         <v>37</v>
       </c>
@@ -4428,7 +4475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5">
       <c r="B56" s="4" t="s">
         <v>41</v>
       </c>
@@ -4442,7 +4489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5">
       <c r="B57" s="4" t="s">
         <v>48</v>
       </c>
@@ -4456,7 +4503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5">
       <c r="B58" s="4" t="s">
         <v>62</v>
       </c>
@@ -4470,7 +4517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5">
       <c r="B59" s="4" t="s">
         <v>62</v>
       </c>
@@ -4484,7 +4531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5">
       <c r="B60" s="4" t="s">
         <v>60</v>
       </c>
@@ -4498,7 +4545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5">
       <c r="B61" s="4" t="s">
         <v>60</v>
       </c>
@@ -4512,7 +4559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5">
       <c r="B62" s="4" t="s">
         <v>61</v>
       </c>
@@ -4526,7 +4573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5">
       <c r="B63" s="4" t="s">
         <v>61</v>
       </c>
@@ -4549,4 +4596,615 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FACF1A-0F1D-48AD-9417-313877BE9797}">
+  <dimension ref="B2:J29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="11.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="39" customWidth="1"/>
+    <col min="4" max="5" width="9" style="39"/>
+    <col min="6" max="6" width="25.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="116" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="D2" s="40">
+        <f>MAX(D4:D29)</f>
+        <v>0.78708</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="41" customFormat="1">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="43">
+        <v>44081</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="15">
+        <v>0.77271999999999996</v>
+      </c>
+      <c r="E4" s="15" t="str">
+        <f>IF(D4=$D$2,"ㅇ", "")</f>
+        <v/>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="43">
+        <v>44082</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="15">
+        <v>0.77271999999999996</v>
+      </c>
+      <c r="E5" s="15" t="str">
+        <f t="shared" ref="E5:E29" si="0">IF(D5=$D$2,"ㅇ", "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="43">
+        <v>44083</v>
+      </c>
+      <c r="C6" s="45">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.77751000000000003</v>
+      </c>
+      <c r="E6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="46" customFormat="1">
+      <c r="B7" s="47">
+        <v>44083</v>
+      </c>
+      <c r="C7" s="48">
+        <v>2</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="E7" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="43">
+        <v>44083</v>
+      </c>
+      <c r="C8" s="45">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="43">
+        <v>44084</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.77271999999999996</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="43"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
+        <v>0.78229000000000004</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.76554999999999995</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15">
+        <v>0.78468000000000004</v>
+      </c>
+      <c r="E12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.75836999999999999</v>
+      </c>
+      <c r="E13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="51">
+        <v>0.78708</v>
+      </c>
+      <c r="E14" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>ㅇ</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="43">
+        <v>44087</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.71531</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="43"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
+        <v>0.65310999999999997</v>
+      </c>
+      <c r="E16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="43">
+        <v>44088</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.77271999999999996</v>
+      </c>
+      <c r="E17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15">
+        <v>0.78229000000000004</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="E22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="43">
+        <v>44089</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.76554999999999995</v>
+      </c>
+      <c r="E23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15">
+        <v>0.74641000000000002</v>
+      </c>
+      <c r="E24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="52" customFormat="1">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" spans="2:10" s="52" customFormat="1">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="52" customFormat="1">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="52" customFormat="1">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="52" customFormat="1">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/kaggle/titanic/titanic_score.xlsx
+++ b/kaggle/titanic/titanic_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okso6\Desktop\workspace\kaggle\titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895AF7D-DD03-46CC-B552-FCB1E417E7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603AFBF0-E87D-49E6-85B5-7E88258A452F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -759,15 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,6 +803,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1728,12 +1728,12 @@
       <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="14">
@@ -2099,12 +2099,12 @@
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="14">
@@ -2481,12 +2481,12 @@
       <c r="C30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="14">
@@ -2808,12 +2808,12 @@
       <c r="C44" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="14">
@@ -2985,12 +2985,12 @@
       <c r="C52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="58"/>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="14">
@@ -3087,12 +3087,12 @@
       <c r="C57" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="58"/>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="14">
@@ -3266,12 +3266,12 @@
       <c r="C65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="38"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="58"/>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="14">
@@ -3453,12 +3453,12 @@
       <c r="C73" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="38"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="58"/>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="14">
@@ -4600,36 +4600,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FACF1A-0F1D-48AD-9417-313877BE9797}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="11.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="39" customWidth="1"/>
-    <col min="4" max="5" width="9" style="39"/>
+    <col min="2" max="2" width="11.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="36" customWidth="1"/>
+    <col min="4" max="5" width="9" style="36"/>
     <col min="6" max="6" width="25.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="49" customWidth="1"/>
     <col min="10" max="10" width="116" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="D2" s="40">
+      <c r="D2" s="37">
         <f>MAX(D4:D29)</f>
         <v>0.78708</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="41" customFormat="1">
+    <row r="3" spans="2:10" s="38" customFormat="1">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -4645,22 +4645,22 @@
       <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="43">
+      <c r="B4" s="40">
         <v>44081</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="15">
         <v>0.77271999999999996</v>
       </c>
@@ -4668,23 +4668,23 @@
         <f>IF(D4=$D$2,"ㅇ", "")</f>
         <v/>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="44" t="s">
+      <c r="G4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="43">
+      <c r="B5" s="40">
         <v>44082</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="15">
         <v>0.77271999999999996</v>
       </c>
@@ -4692,25 +4692,25 @@
         <f t="shared" ref="E5:E29" si="0">IF(D5=$D$2,"ㅇ", "")</f>
         <v/>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="44" t="s">
+      <c r="G5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="I5" s="51"/>
+      <c r="J5" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="43">
+      <c r="B6" s="40">
         <v>44083</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="42">
         <v>1</v>
       </c>
       <c r="D6" s="15">
@@ -4720,53 +4720,53 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="H6" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="51"/>
+      <c r="J6" s="41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="46" customFormat="1">
-      <c r="B7" s="47">
+    <row r="7" spans="2:10" s="43" customFormat="1">
+      <c r="B7" s="44">
         <v>44083</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="45">
         <v>2</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="46">
         <v>0.77032999999999996</v>
       </c>
-      <c r="E7" s="49" t="str">
+      <c r="E7" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="50" t="s">
+      <c r="G7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="H7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="I7" s="52"/>
+      <c r="J7" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="43">
+      <c r="B8" s="40">
         <v>44083</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="42">
         <v>3</v>
       </c>
       <c r="D8" s="15">
@@ -4776,22 +4776,22 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="44" t="s">
+      <c r="G8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="H8" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="43">
+      <c r="B9" s="40">
         <v>44084</v>
       </c>
       <c r="C9" s="15">
@@ -4804,20 +4804,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="44" t="s">
+      <c r="G9" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="43"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15">
         <v>0.78229000000000004</v>
@@ -4826,13 +4826,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="41" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4848,15 +4848,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="44" t="s">
+      <c r="G11" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="41" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4870,13 +4870,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="41" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4892,40 +4892,40 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="44" t="s">
+      <c r="G13" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="51">
+      <c r="D14" s="48">
         <v>0.78708</v>
       </c>
-      <c r="E14" s="51" t="str">
+      <c r="E14" s="48" t="str">
         <f t="shared" si="0"/>
         <v>ㅇ</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="41" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="43">
+      <c r="B15" s="40">
         <v>44087</v>
       </c>
       <c r="C15" s="15">
@@ -4938,22 +4938,22 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="44" t="s">
+      <c r="G15" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="H15" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="41" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="43"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
         <v>0.65310999999999997</v>
@@ -4962,16 +4962,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="43">
+      <c r="B17" s="40">
         <v>44088</v>
       </c>
       <c r="C17" s="15">
@@ -4984,17 +4984,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="H17" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="44"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="15"/>
@@ -5006,15 +5006,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="44"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="15"/>
@@ -5026,15 +5026,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="44"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="15"/>
@@ -5046,15 +5046,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44" t="s">
+      <c r="G20" s="41"/>
+      <c r="H20" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="44"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="15"/>
@@ -5068,17 +5068,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="H21" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5092,18 +5092,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="43">
+      <c r="B23" s="40">
         <v>44089</v>
       </c>
       <c r="C23" s="15">
@@ -5116,17 +5116,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="44" t="s">
+      <c r="G23" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="H23" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="I23" s="51"/>
+      <c r="J23" s="41" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5140,71 +5140,71 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44" t="s">
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="52" customFormat="1">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56" t="str">
+    <row r="25" spans="2:10" s="49" customFormat="1">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-    </row>
-    <row r="26" spans="2:10" s="52" customFormat="1">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58" t="str">
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="2:10" s="49" customFormat="1">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" s="52" customFormat="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58" t="str">
+    <row r="27" spans="2:10" s="49" customFormat="1">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" s="52" customFormat="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58" t="str">
+    <row r="28" spans="2:10" s="49" customFormat="1">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:10" s="52" customFormat="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58" t="str">
+    <row r="29" spans="2:10" s="49" customFormat="1">
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="H29" s="49" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>